--- a/biology/Botanique/Justicia_orbicularis/Justicia_orbicularis.xlsx
+++ b/biology/Botanique/Justicia_orbicularis/Justicia_orbicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Justicia orbicularis (Lindau) V.A.W.Graham est une espèce de plantes de la famille des Acanthaceae et du genre Justicia, présente au Cameroun, au Nigeria et en Guinée équatoriale[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Justicia orbicularis (Lindau) V.A.W.Graham est une espèce de plantes de la famille des Acanthaceae et du genre Justicia, présente au Cameroun, au Nigeria et en Guinée équatoriale.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les forêts de basse altitude, entre 0 et 700 m, souvent le long des cours d'eau[2].
-Au Cameroun elle a été collectée dans la région du Sud-Ouest (monts Bakossi, Kumba), dans la région du Centre près de Yaoundé, dans la région du Sud (Ebolowa-Ambam) et dans celle du Littoral (Bafang-Yabassi)[2].
-Au Nigeria on la trouve dans l'État de Cross River et en Guinée équatoriale sur l'île de Bioko[2].
-On estime la perte de son habitat à environ 30% en 30 ans : elle est classée « vulnérable » (VU) sur la liste rouge de l'UICN[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les forêts de basse altitude, entre 0 et 700 m, souvent le long des cours d'eau.
+Au Cameroun elle a été collectée dans la région du Sud-Ouest (monts Bakossi, Kumba), dans la région du Centre près de Yaoundé, dans la région du Sud (Ebolowa-Ambam) et dans celle du Littoral (Bafang-Yabassi).
+Au Nigeria on la trouve dans l'État de Cross River et en Guinée équatoriale sur l'île de Bioko.
+On estime la perte de son habitat à environ 30% en 30 ans : elle est classée « vulnérable » (VU) sur la liste rouge de l'UICN.
 </t>
         </is>
       </c>
